--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B42813-88BE-4B0E-A209-B0F42AD54FEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F004019-FC63-4CA3-A628-661A1A98B1C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25140" yWindow="-60" windowWidth="25320" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>P-t-P</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -785,17 +788,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -806,10 +803,18 @@
     <xf numFmtId="16" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1169,7 +1174,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,13 +1186,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16383" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17568,535 +17573,537 @@
       <c r="XFC1" s="1"/>
     </row>
     <row r="2" spans="1:16383" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:16383" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:16383" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:16383" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8">
-        <v>43719</v>
+      <c r="D5" s="6">
+        <v>43718</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
     </row>
     <row r="7" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
     </row>
     <row r="8" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
     </row>
     <row r="10" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
     </row>
     <row r="11" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
     </row>
     <row r="12" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
     </row>
     <row r="13" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
     </row>
     <row r="14" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
     </row>
     <row r="15" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
     </row>
     <row r="16" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
     </row>
     <row r="17" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
     </row>
     <row r="18" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
     </row>
     <row r="19" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
     </row>
     <row r="20" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D22" s="11" t="s">
+    <row r="22" spans="1:21" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F004019-FC63-4CA3-A628-661A1A98B1C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4845E025-AEDD-4472-8518-F93CFF841B96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25140" yWindow="-60" windowWidth="25320" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={423CCE01-35D9-481A-A0F4-9695E800AE32}</author>
+    <author>tc={F00F7F03-784B-4F14-B0FB-36655456CD81}</author>
+  </authors>
+  <commentList>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{423CCE01-35D9-481A-A0F4-9695E800AE32}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    Нет IP у сервера</t>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="1" shapeId="0" xr:uid="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    Нет IP у сервера</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -220,12 +247,15 @@
   <si>
     <t>+</t>
   </si>
+  <si>
+    <t>Hub</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +455,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -791,9 +828,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -807,15 +841,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -872,6 +907,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="С.С. Уколов" id="{D7A0377F-E828-499A-82F6-B623B0EE837A}" userId="С.С. Уколов" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1169,12 +1210,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E17" dT="2019-09-23T05:50:09.93" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{423CCE01-35D9-481A-A0F4-9695E800AE32}">
+    <text>Нет IP у сервера</text>
+  </threadedComment>
+  <threadedComment ref="E18" dT="2019-09-23T05:50:21.26" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
+    <text>Нет IP у сервера</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17610,500 +17662,521 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:16383" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:16383" s="11" customFormat="1" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>43718</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="E5" s="5">
+        <v>43725</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
+      <c r="D6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
+      <c r="D10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
     </row>
     <row r="12" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
     </row>
     <row r="13" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
     </row>
     <row r="14" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
     </row>
     <row r="15" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
     </row>
     <row r="17" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
+      <c r="D17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="8">
+        <v>4</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
     </row>
     <row r="18" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
+        <v>4</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
     </row>
     <row r="19" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
     </row>
     <row r="20" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>1</v>
       </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="1:21" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D22" s="8" t="s">
+    <row r="22" spans="1:21" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
+      <c r="E22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -18113,5 +18186,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4845E025-AEDD-4472-8518-F93CFF841B96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACC55E8-8C7B-4DE6-8613-D6766FAFCF61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25140" yWindow="-60" windowWidth="25320" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
   <authors>
     <author>tc={423CCE01-35D9-481A-A0F4-9695E800AE32}</author>
     <author>tc={F00F7F03-784B-4F14-B0FB-36655456CD81}</author>
+    <author>tc={A0085167-6E4E-43BA-ABBA-2AF4258BC437}</author>
   </authors>
   <commentList>
     <comment ref="E17" authorId="0" shapeId="0" xr:uid="{423CCE01-35D9-481A-A0F4-9695E800AE32}">
@@ -42,12 +43,20 @@
     Нет IP у сервера</t>
       </text>
     </comment>
+    <comment ref="E19" authorId="2" shapeId="0" xr:uid="{A0085167-6E4E-43BA-ABBA-2AF4258BC437}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    Нет IP у сервера</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -460,8 +469,7 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -844,13 +852,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1218,6 +1226,9 @@
   <threadedComment ref="E18" dT="2019-09-23T05:50:21.26" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
     <text>Нет IP у сервера</text>
   </threadedComment>
+  <threadedComment ref="E19" dT="2019-09-23T05:50:21.26" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{A0085167-6E4E-43BA-ABBA-2AF4258BC437}">
+    <text>Нет IP у сервера</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1226,7 +1237,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,13 +1249,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16383" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17625,22 +17636,22 @@
       <c r="XFC1" s="1"/>
     </row>
     <row r="2" spans="1:16383" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:16383" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:16383" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
@@ -17662,7 +17673,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:16383" s="11" customFormat="1" ht="35.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16383" s="9" customFormat="1" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -18098,8 +18109,12 @@
       <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="8">
+        <v>4</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACC55E8-8C7B-4DE6-8613-D6766FAFCF61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822A0207-B556-425A-8D30-BC1D6EC4BAF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25140" yWindow="-60" windowWidth="25320" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -259,12 +259,15 @@
   <si>
     <t>Hub</t>
   </si>
+  <si>
+    <t>Switch</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,12 +467,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1237,7 +1234,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17689,7 +17686,9 @@
       <c r="E5" s="5">
         <v>43725</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5">
+        <v>43732</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -17722,7 +17721,9 @@
       <c r="E6" s="8">
         <v>5</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -17839,10 +17840,12 @@
       <c r="D10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>52</v>
+      <c r="E10" s="8">
+        <v>5</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8">
+        <v>5</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -18051,7 +18054,9 @@
       <c r="E17" s="8">
         <v>4</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8">
+        <v>5</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -18168,15 +18173,20 @@
       <c r="E21">
         <v>2</v>
       </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:21" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822A0207-B556-425A-8D30-BC1D6EC4BAF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13CB425-5FD8-4A97-8474-6801E7039959}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25140" yWindow="-60" windowWidth="25320" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="1650" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,21 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={AB66EF13-02EF-4150-BDB2-5613B16F7E81}</author>
     <author>tc={423CCE01-35D9-481A-A0F4-9695E800AE32}</author>
     <author>tc={F00F7F03-784B-4F14-B0FB-36655456CD81}</author>
     <author>tc={A0085167-6E4E-43BA-ABBA-2AF4258BC437}</author>
   </authors>
   <commentList>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{423CCE01-35D9-481A-A0F4-9695E800AE32}">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{AB66EF13-02EF-4150-BDB2-5613B16F7E81}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    Чужие IP</t>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{423CCE01-35D9-481A-A0F4-9695E800AE32}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -35,7 +44,7 @@
     Нет IP у сервера</t>
       </text>
     </comment>
-    <comment ref="E18" authorId="1" shapeId="0" xr:uid="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
+    <comment ref="E18" authorId="2" shapeId="0" xr:uid="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -43,7 +52,7 @@
     Нет IP у сервера</t>
       </text>
     </comment>
-    <comment ref="E19" authorId="2" shapeId="0" xr:uid="{A0085167-6E4E-43BA-ABBA-2AF4258BC437}">
+    <comment ref="E19" authorId="3" shapeId="0" xr:uid="{A0085167-6E4E-43BA-ABBA-2AF4258BC437}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -262,12 +271,15 @@
   <si>
     <t>Switch</t>
   </si>
+  <si>
+    <t>cmd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +479,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1217,6 +1235,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E12" dT="2019-10-01T08:25:43.16" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{AB66EF13-02EF-4150-BDB2-5613B16F7E81}">
+    <text>Чужие IP</text>
+  </threadedComment>
   <threadedComment ref="E17" dT="2019-09-23T05:50:09.93" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{423CCE01-35D9-481A-A0F4-9695E800AE32}">
     <text>Нет IP у сервера</text>
   </threadedComment>
@@ -1234,7 +1255,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17689,7 +17710,9 @@
       <c r="F5" s="5">
         <v>43732</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5">
+        <v>43739</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -17904,8 +17927,12 @@
       <c r="D12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8">
+        <v>5</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -18057,7 +18084,9 @@
       <c r="F17" s="8">
         <v>5</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="8">
+        <v>5</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -18176,6 +18205,9 @@
       <c r="F21">
         <v>3</v>
       </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:21" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
@@ -18187,7 +18219,9 @@
       <c r="F22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13CB425-5FD8-4A97-8474-6801E7039959}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B853C215-DBCC-4C58-B485-A964366F38D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1650" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="945" windowWidth="18900" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,12 +479,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1255,7 +1249,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17747,7 +17741,9 @@
       <c r="F6" s="8">
         <v>5</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8">
+        <v>5</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -17869,7 +17865,9 @@
       <c r="F10" s="8">
         <v>5</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8">
+        <v>5</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B853C215-DBCC-4C58-B485-A964366F38D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C7EAD6-CC72-4A0D-A162-4105C20771EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="945" windowWidth="18900" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>cmd</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17707,7 +17710,9 @@
       <c r="G5" s="5">
         <v>43739</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5">
+        <v>43746</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -17868,7 +17873,9 @@
       <c r="G10" s="8">
         <v>5</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8">
+        <v>5</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -17932,7 +17939,9 @@
         <v>5</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8">
+        <v>5</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -18044,11 +18053,21 @@
       <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="8">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8">
+        <v>5</v>
+      </c>
+      <c r="H16" s="8">
+        <v>5</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -18085,7 +18104,9 @@
       <c r="G17" s="8">
         <v>5</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8">
+        <v>5</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -18147,7 +18168,9 @@
       <c r="E19" s="8">
         <v>4</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8">
+        <v>5</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -18206,8 +18229,11 @@
       <c r="G21">
         <v>4</v>
       </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
     </row>
-    <row r="22" spans="1:21" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" s="6" customFormat="1" ht="53.25" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
         <v>51</v>
       </c>
@@ -18220,7 +18246,9 @@
       <c r="G22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C7EAD6-CC72-4A0D-A162-4105C20771EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6AB5CF-1375-4D64-8966-927B418F1965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={AB66EF13-02EF-4150-BDB2-5613B16F7E81}</author>
-    <author>tc={423CCE01-35D9-481A-A0F4-9695E800AE32}</author>
     <author>tc={F00F7F03-784B-4F14-B0FB-36655456CD81}</author>
     <author>tc={A0085167-6E4E-43BA-ABBA-2AF4258BC437}</author>
   </authors>
@@ -36,7 +35,7 @@
     Чужие IP</t>
       </text>
     </comment>
-    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{423CCE01-35D9-481A-A0F4-9695E800AE32}">
+    <comment ref="E18" authorId="1" shapeId="0" xr:uid="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -44,15 +43,7 @@
     Нет IP у сервера</t>
       </text>
     </comment>
-    <comment ref="E18" authorId="2" shapeId="0" xr:uid="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
-      <text>
-        <t>[Цепочка примечаний]
-Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
-Комментарий:
-    Нет IP у сервера</t>
-      </text>
-    </comment>
-    <comment ref="E19" authorId="3" shapeId="0" xr:uid="{A0085167-6E4E-43BA-ABBA-2AF4258BC437}">
+    <comment ref="E19" authorId="2" shapeId="0" xr:uid="{A0085167-6E4E-43BA-ABBA-2AF4258BC437}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -276,6 +267,9 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>STP</t>
   </si>
 </sst>
 </file>
@@ -1235,9 +1229,6 @@
   <threadedComment ref="E12" dT="2019-10-01T08:25:43.16" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{AB66EF13-02EF-4150-BDB2-5613B16F7E81}">
     <text>Чужие IP</text>
   </threadedComment>
-  <threadedComment ref="E17" dT="2019-09-23T05:50:09.93" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{423CCE01-35D9-481A-A0F4-9695E800AE32}">
-    <text>Нет IP у сервера</text>
-  </threadedComment>
   <threadedComment ref="E18" dT="2019-09-23T05:50:21.26" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
     <text>Нет IP у сервера</text>
   </threadedComment>
@@ -1252,7 +1243,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17713,7 +17704,9 @@
       <c r="H5" s="5">
         <v>43746</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5">
+        <v>43753</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -17749,8 +17742,12 @@
       <c r="G6" s="8">
         <v>5</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="8">
+        <v>5</v>
+      </c>
+      <c r="I6" s="8">
+        <v>5</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -17876,7 +17873,9 @@
       <c r="H10" s="8">
         <v>5</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="8">
+        <v>5</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -17942,7 +17941,9 @@
       <c r="H12" s="8">
         <v>5</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="8">
+        <v>5</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -18068,7 +18069,9 @@
       <c r="H16" s="8">
         <v>5</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="8">
+        <v>5</v>
+      </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -18096,7 +18099,7 @@
         <v>52</v>
       </c>
       <c r="E17" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="8">
         <v>5</v>
@@ -18107,7 +18110,9 @@
       <c r="H17" s="8">
         <v>5</v>
       </c>
-      <c r="I17" s="8"/>
+      <c r="I17" s="8">
+        <v>5</v>
+      </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -18173,7 +18178,9 @@
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="8">
+        <v>5</v>
+      </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -18232,6 +18239,9 @@
       <c r="H21">
         <v>5</v>
       </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:21" s="6" customFormat="1" ht="53.25" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
@@ -18249,7 +18259,9 @@
       <c r="H22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6AB5CF-1375-4D64-8966-927B418F1965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B04E8D-3B26-406D-BD10-0B186315F070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="945" windowWidth="18900" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={AB66EF13-02EF-4150-BDB2-5613B16F7E81}</author>
+    <author>tc={844C2D38-A18A-428C-A158-825640A03A71}</author>
     <author>tc={F00F7F03-784B-4F14-B0FB-36655456CD81}</author>
     <author>tc={A0085167-6E4E-43BA-ABBA-2AF4258BC437}</author>
   </authors>
@@ -35,7 +36,15 @@
     Чужие IP</t>
       </text>
     </comment>
-    <comment ref="E18" authorId="1" shapeId="0" xr:uid="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
+    <comment ref="J12" authorId="1" shapeId="0" xr:uid="{844C2D38-A18A-428C-A158-825640A03A71}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    Не настроен Port aggregation справа</t>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="2" shapeId="0" xr:uid="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -43,7 +52,7 @@
     Нет IP у сервера</t>
       </text>
     </comment>
-    <comment ref="E19" authorId="2" shapeId="0" xr:uid="{A0085167-6E4E-43BA-ABBA-2AF4258BC437}">
+    <comment ref="E19" authorId="3" shapeId="0" xr:uid="{A0085167-6E4E-43BA-ABBA-2AF4258BC437}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -271,12 +280,15 @@
   <si>
     <t>STP</t>
   </si>
+  <si>
+    <t>Aggreg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +488,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1229,6 +1247,9 @@
   <threadedComment ref="E12" dT="2019-10-01T08:25:43.16" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{AB66EF13-02EF-4150-BDB2-5613B16F7E81}">
     <text>Чужие IP</text>
   </threadedComment>
+  <threadedComment ref="J12" dT="2019-10-24T07:57:07.86" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{844C2D38-A18A-428C-A158-825640A03A71}">
+    <text>Не настроен Port aggregation справа</text>
+  </threadedComment>
   <threadedComment ref="E18" dT="2019-09-23T05:50:21.26" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
     <text>Нет IP у сервера</text>
   </threadedComment>
@@ -1243,7 +1264,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17707,7 +17728,9 @@
       <c r="I5" s="5">
         <v>43753</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5">
+        <v>43760</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -17748,7 +17771,9 @@
       <c r="I6" s="8">
         <v>5</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8">
+        <v>5</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -17876,7 +17901,9 @@
       <c r="I10" s="8">
         <v>5</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="8">
+        <v>5</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -17905,7 +17932,9 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="8">
+        <v>5</v>
+      </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -17944,7 +17973,9 @@
       <c r="I12" s="8">
         <v>5</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="8">
+        <v>3</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -18072,7 +18103,9 @@
       <c r="I16" s="8">
         <v>5</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8">
+        <v>5</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -18113,7 +18146,9 @@
       <c r="I17" s="8">
         <v>5</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8">
+        <v>5</v>
+      </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -18144,7 +18179,9 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8">
+        <v>5</v>
+      </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -18181,7 +18218,9 @@
       <c r="I19" s="8">
         <v>5</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="8">
+        <v>5</v>
+      </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -18242,6 +18281,9 @@
       <c r="I21">
         <v>6</v>
       </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:21" s="6" customFormat="1" ht="53.25" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
@@ -18262,7 +18304,9 @@
       <c r="I22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B04E8D-3B26-406D-BD10-0B186315F070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE58C57-3624-4ED1-A89A-57738187D15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="945" windowWidth="18900" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -283,12 +283,15 @@
   <si>
     <t>Aggreg</t>
   </si>
+  <si>
+    <t>VLAN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,12 +491,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1264,7 +1261,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17731,7 +17728,9 @@
       <c r="J5" s="5">
         <v>43760</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5">
+        <v>43767</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -17774,7 +17773,9 @@
       <c r="J6" s="8">
         <v>5</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="8">
+        <v>5</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -17976,7 +17977,9 @@
       <c r="J12" s="8">
         <v>3</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -18106,7 +18109,9 @@
       <c r="J16" s="8">
         <v>5</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="8">
+        <v>5</v>
+      </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -18149,7 +18154,9 @@
       <c r="J17" s="8">
         <v>5</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="8">
+        <v>5</v>
+      </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -18221,7 +18228,9 @@
       <c r="J19" s="8">
         <v>5</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="8">
+        <v>5</v>
+      </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -18284,6 +18293,9 @@
       <c r="J21">
         <v>7</v>
       </c>
+      <c r="K21">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:21" s="6" customFormat="1" ht="53.25" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
@@ -18307,7 +18319,9 @@
       <c r="J22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE58C57-3624-4ED1-A89A-57738187D15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC05704-0C22-4E8F-8D58-A3C9BF3BE983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,9 @@
   <authors>
     <author>tc={AB66EF13-02EF-4150-BDB2-5613B16F7E81}</author>
     <author>tc={844C2D38-A18A-428C-A158-825640A03A71}</author>
+    <author>tc={55B526D3-4963-40C1-9B36-A2985EF72C9F}</author>
     <author>tc={F00F7F03-784B-4F14-B0FB-36655456CD81}</author>
+    <author>tc={F9BD9CB9-0C98-47F6-B7DA-950DB990007B}</author>
     <author>tc={A0085167-6E4E-43BA-ABBA-2AF4258BC437}</author>
   </authors>
   <commentList>
@@ -44,7 +46,15 @@
     Не настроен Port aggregation справа</t>
       </text>
     </comment>
-    <comment ref="E18" authorId="2" shapeId="0" xr:uid="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
+    <comment ref="L12" authorId="2" shapeId="0" xr:uid="{55B526D3-4963-40C1-9B36-A2985EF72C9F}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    Опечатка в шлюзе по умолчанию</t>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="3" shapeId="0" xr:uid="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +62,15 @@
     Нет IP у сервера</t>
       </text>
     </comment>
-    <comment ref="E19" authorId="3" shapeId="0" xr:uid="{A0085167-6E4E-43BA-ABBA-2AF4258BC437}">
+    <comment ref="L18" authorId="4" shapeId="0" xr:uid="{F9BD9CB9-0C98-47F6-B7DA-950DB990007B}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    Чужой IP</t>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="5" shapeId="0" xr:uid="{A0085167-6E4E-43BA-ABBA-2AF4258BC437}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -286,12 +304,15 @@
   <si>
     <t>VLAN</t>
   </si>
+  <si>
+    <t>L3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +512,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1247,8 +1274,14 @@
   <threadedComment ref="J12" dT="2019-10-24T07:57:07.86" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{844C2D38-A18A-428C-A158-825640A03A71}">
     <text>Не настроен Port aggregation справа</text>
   </threadedComment>
+  <threadedComment ref="L12" dT="2019-11-11T08:59:43.67" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{55B526D3-4963-40C1-9B36-A2985EF72C9F}">
+    <text>Опечатка в шлюзе по умолчанию</text>
+  </threadedComment>
   <threadedComment ref="E18" dT="2019-09-23T05:50:21.26" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
     <text>Нет IP у сервера</text>
+  </threadedComment>
+  <threadedComment ref="L18" dT="2019-11-11T08:56:27.52" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{F9BD9CB9-0C98-47F6-B7DA-950DB990007B}">
+    <text>Чужой IP</text>
   </threadedComment>
   <threadedComment ref="E19" dT="2019-09-23T05:50:21.26" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{A0085167-6E4E-43BA-ABBA-2AF4258BC437}">
     <text>Нет IP у сервера</text>
@@ -1261,7 +1294,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17697,7 +17730,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:16383" s="9" customFormat="1" ht="35.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16383" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -17731,7 +17764,9 @@
       <c r="K5" s="5">
         <v>43767</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5">
+        <v>43774</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -17776,7 +17811,9 @@
       <c r="K6" s="8">
         <v>5</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8">
+        <v>5</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -17905,8 +17942,12 @@
       <c r="J10" s="8">
         <v>5</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="K10" s="8">
+        <v>5</v>
+      </c>
+      <c r="L10" s="8">
+        <v>5</v>
+      </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -17980,7 +18021,9 @@
       <c r="K12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" s="8">
+        <v>4</v>
+      </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -18112,7 +18155,9 @@
       <c r="K16" s="8">
         <v>5</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8">
+        <v>5</v>
+      </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
@@ -18157,7 +18202,9 @@
       <c r="K17" s="8">
         <v>5</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="8">
+        <v>5</v>
+      </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
@@ -18190,7 +18237,9 @@
         <v>5</v>
       </c>
       <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="L18" s="8">
+        <v>4</v>
+      </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
@@ -18231,7 +18280,9 @@
       <c r="K19" s="8">
         <v>5</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8">
+        <v>5</v>
+      </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -18296,6 +18347,9 @@
       <c r="K21">
         <v>8</v>
       </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:21" s="6" customFormat="1" ht="53.25" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
@@ -18322,7 +18376,9 @@
       <c r="K22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC05704-0C22-4E8F-8D58-A3C9BF3BE983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B53D4C-DE1F-4FB3-9505-254C132E2535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,8 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={8BF01296-BEE6-4B95-9114-865683F66995}</author>
+    <author>tc={EA12A057-DA72-49F3-9F9B-82092380200A}</author>
     <author>tc={AB66EF13-02EF-4150-BDB2-5613B16F7E81}</author>
     <author>tc={844C2D38-A18A-428C-A158-825640A03A71}</author>
     <author>tc={55B526D3-4963-40C1-9B36-A2985EF72C9F}</author>
@@ -30,7 +32,23 @@
     <author>tc={A0085167-6E4E-43BA-ABBA-2AF4258BC437}</author>
   </authors>
   <commentList>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{AB66EF13-02EF-4150-BDB2-5613B16F7E81}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{8BF01296-BEE6-4B95-9114-865683F66995}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    Неверные подписи</t>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="1" shapeId="0" xr:uid="{EA12A057-DA72-49F3-9F9B-82092380200A}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    Потерян линк до DNS-сервера</t>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="2" shapeId="0" xr:uid="{AB66EF13-02EF-4150-BDB2-5613B16F7E81}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -38,7 +56,7 @@
     Чужие IP</t>
       </text>
     </comment>
-    <comment ref="J12" authorId="1" shapeId="0" xr:uid="{844C2D38-A18A-428C-A158-825640A03A71}">
+    <comment ref="J12" authorId="3" shapeId="0" xr:uid="{844C2D38-A18A-428C-A158-825640A03A71}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -46,7 +64,7 @@
     Не настроен Port aggregation справа</t>
       </text>
     </comment>
-    <comment ref="L12" authorId="2" shapeId="0" xr:uid="{55B526D3-4963-40C1-9B36-A2985EF72C9F}">
+    <comment ref="L12" authorId="4" shapeId="0" xr:uid="{55B526D3-4963-40C1-9B36-A2985EF72C9F}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +72,7 @@
     Опечатка в шлюзе по умолчанию</t>
       </text>
     </comment>
-    <comment ref="E18" authorId="3" shapeId="0" xr:uid="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
+    <comment ref="E18" authorId="5" shapeId="0" xr:uid="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,7 +80,7 @@
     Нет IP у сервера</t>
       </text>
     </comment>
-    <comment ref="L18" authorId="4" shapeId="0" xr:uid="{F9BD9CB9-0C98-47F6-B7DA-950DB990007B}">
+    <comment ref="L18" authorId="6" shapeId="0" xr:uid="{F9BD9CB9-0C98-47F6-B7DA-950DB990007B}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +88,7 @@
     Чужой IP</t>
       </text>
     </comment>
-    <comment ref="E19" authorId="5" shapeId="0" xr:uid="{A0085167-6E4E-43BA-ABBA-2AF4258BC437}">
+    <comment ref="E19" authorId="7" shapeId="0" xr:uid="{A0085167-6E4E-43BA-ABBA-2AF4258BC437}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -83,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -306,6 +324,9 @@
   </si>
   <si>
     <t>L3</t>
+  </si>
+  <si>
+    <t>Router</t>
   </si>
 </sst>
 </file>
@@ -1268,6 +1289,12 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D8" dT="2019-11-18T09:14:49.06" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{8BF01296-BEE6-4B95-9114-865683F66995}">
+    <text>Неверные подписи</text>
+  </threadedComment>
+  <threadedComment ref="I8" dT="2019-11-18T09:11:08.42" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{EA12A057-DA72-49F3-9F9B-82092380200A}">
+    <text>Потерян линк до DNS-сервера</text>
+  </threadedComment>
   <threadedComment ref="E12" dT="2019-10-01T08:25:43.16" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{AB66EF13-02EF-4150-BDB2-5613B16F7E81}">
     <text>Чужие IP</text>
   </threadedComment>
@@ -1294,7 +1321,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17767,7 +17794,9 @@
       <c r="L5" s="5">
         <v>43774</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="5">
+        <v>43781</v>
+      </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -17814,7 +17843,9 @@
       <c r="L6" s="8">
         <v>5</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="8">
+        <v>5</v>
+      </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -17863,16 +17894,32 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="8">
+        <v>4</v>
+      </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="8">
+        <v>5</v>
+      </c>
       <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="M8" s="8">
+        <v>5</v>
+      </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -17948,7 +17995,9 @@
       <c r="L10" s="8">
         <v>5</v>
       </c>
-      <c r="M10" s="8"/>
+      <c r="M10" s="8">
+        <v>5</v>
+      </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -18024,7 +18073,9 @@
       <c r="L12" s="8">
         <v>4</v>
       </c>
-      <c r="M12" s="8"/>
+      <c r="M12" s="8">
+        <v>5</v>
+      </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -18158,7 +18209,9 @@
       <c r="L16" s="8">
         <v>5</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="8">
+        <v>5</v>
+      </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -18283,7 +18336,9 @@
       <c r="L19" s="8">
         <v>5</v>
       </c>
-      <c r="M19" s="8"/>
+      <c r="M19" s="8">
+        <v>5</v>
+      </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -18350,6 +18405,9 @@
       <c r="L21">
         <v>9</v>
       </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:21" s="6" customFormat="1" ht="53.25" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
@@ -18379,7 +18437,9 @@
       <c r="L22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M22" s="7"/>
+      <c r="M22" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B53D4C-DE1F-4FB3-9505-254C132E2535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6976201-FC1C-4C93-A44F-356430184434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -328,12 +328,15 @@
   <si>
     <t>Router</t>
   </si>
+  <si>
+    <t>OSPF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,12 +536,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1321,7 +1318,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17797,7 +17794,9 @@
       <c r="M5" s="5">
         <v>43781</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="N5" s="5">
+        <v>43788</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -17846,7 +17845,9 @@
       <c r="M6" s="8">
         <v>5</v>
       </c>
-      <c r="N6" s="8"/>
+      <c r="N6" s="8">
+        <v>5</v>
+      </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
@@ -17998,7 +17999,9 @@
       <c r="M10" s="8">
         <v>5</v>
       </c>
-      <c r="N10" s="8"/>
+      <c r="N10" s="8">
+        <v>5</v>
+      </c>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
@@ -18076,7 +18079,9 @@
       <c r="M12" s="8">
         <v>5</v>
       </c>
-      <c r="N12" s="8"/>
+      <c r="N12" s="8">
+        <v>5</v>
+      </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -18212,7 +18217,9 @@
       <c r="M16" s="8">
         <v>5</v>
       </c>
-      <c r="N16" s="8"/>
+      <c r="N16" s="8">
+        <v>5</v>
+      </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
@@ -18259,7 +18266,9 @@
         <v>5</v>
       </c>
       <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="N17" s="8">
+        <v>5</v>
+      </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
@@ -18408,6 +18417,9 @@
       <c r="M21">
         <v>10</v>
       </c>
+      <c r="N21">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="1:21" s="6" customFormat="1" ht="53.25" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
@@ -18440,7 +18452,9 @@
       <c r="M22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6976201-FC1C-4C93-A44F-356430184434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4594CE17-E835-41CA-9D27-DA1C7E1C8B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>OSPF</t>
+  </si>
+  <si>
+    <t>NAT</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1321,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17797,7 +17800,9 @@
       <c r="N5" s="5">
         <v>43788</v>
       </c>
-      <c r="O5" s="5"/>
+      <c r="O5" s="5">
+        <v>43795</v>
+      </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -17848,7 +17853,9 @@
       <c r="N6" s="8">
         <v>5</v>
       </c>
-      <c r="O6" s="8"/>
+      <c r="O6" s="8">
+        <v>5</v>
+      </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
@@ -18002,7 +18009,9 @@
       <c r="N10" s="8">
         <v>5</v>
       </c>
-      <c r="O10" s="8"/>
+      <c r="O10" s="8">
+        <v>5</v>
+      </c>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
@@ -18082,7 +18091,9 @@
       <c r="N12" s="8">
         <v>5</v>
       </c>
-      <c r="O12" s="8"/>
+      <c r="O12" s="8">
+        <v>5</v>
+      </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -18220,7 +18231,9 @@
       <c r="N16" s="8">
         <v>5</v>
       </c>
-      <c r="O16" s="8"/>
+      <c r="O16" s="8">
+        <v>5</v>
+      </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
@@ -18269,7 +18282,9 @@
       <c r="N17" s="8">
         <v>5</v>
       </c>
-      <c r="O17" s="8"/>
+      <c r="O17" s="8">
+        <v>5</v>
+      </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
@@ -18349,7 +18364,9 @@
         <v>5</v>
       </c>
       <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="O19" s="8">
+        <v>5</v>
+      </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
@@ -18420,6 +18437,9 @@
       <c r="N21">
         <v>11</v>
       </c>
+      <c r="O21">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:21" s="6" customFormat="1" ht="53.25" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
@@ -18455,7 +18475,9 @@
       <c r="N22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="O22" s="7"/>
+      <c r="O22" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4594CE17-E835-41CA-9D27-DA1C7E1C8B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5CA7A3-B393-4D97-A194-F610766C627B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>NAT</t>
+  </si>
+  <si>
+    <t>DMZ</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1324,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17757,7 +17760,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:16383" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16383" s="9" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -17803,7 +17806,9 @@
       <c r="O5" s="5">
         <v>43795</v>
       </c>
-      <c r="P5" s="5"/>
+      <c r="P5" s="5">
+        <v>43802</v>
+      </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -17856,7 +17861,9 @@
       <c r="O6" s="8">
         <v>5</v>
       </c>
-      <c r="P6" s="8"/>
+      <c r="P6" s="8">
+        <v>5</v>
+      </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
@@ -18012,7 +18019,9 @@
       <c r="O10" s="8">
         <v>5</v>
       </c>
-      <c r="P10" s="8"/>
+      <c r="P10" s="8">
+        <v>5</v>
+      </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -18094,7 +18103,9 @@
       <c r="O12" s="8">
         <v>5</v>
       </c>
-      <c r="P12" s="8"/>
+      <c r="P12" s="8">
+        <v>5</v>
+      </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -18234,7 +18245,9 @@
       <c r="O16" s="8">
         <v>5</v>
       </c>
-      <c r="P16" s="8"/>
+      <c r="P16" s="8">
+        <v>5</v>
+      </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -18285,7 +18298,9 @@
       <c r="O17" s="8">
         <v>5</v>
       </c>
-      <c r="P17" s="8"/>
+      <c r="P17" s="8">
+        <v>5</v>
+      </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -18440,6 +18455,9 @@
       <c r="O21">
         <v>12</v>
       </c>
+      <c r="P21">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:21" s="6" customFormat="1" ht="53.25" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
@@ -18478,7 +18496,9 @@
       <c r="O22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="7"/>
+      <c r="P22" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5CA7A3-B393-4D97-A194-F610766C627B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B7EF2F-41C2-4F27-9FF1-DA8DD9926D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,11 @@
     <author>tc={AB66EF13-02EF-4150-BDB2-5613B16F7E81}</author>
     <author>tc={844C2D38-A18A-428C-A158-825640A03A71}</author>
     <author>tc={55B526D3-4963-40C1-9B36-A2985EF72C9F}</author>
+    <author>tc={1F260E3B-2112-4D8B-A6E1-4E232388F4C3}</author>
     <author>tc={F00F7F03-784B-4F14-B0FB-36655456CD81}</author>
     <author>tc={F9BD9CB9-0C98-47F6-B7DA-950DB990007B}</author>
     <author>tc={A0085167-6E4E-43BA-ABBA-2AF4258BC437}</author>
+    <author>tc={7D3186B8-56AF-48B7-B8FE-0D21F195F2B1}</author>
   </authors>
   <commentList>
     <comment ref="D8" authorId="0" shapeId="0" xr:uid="{8BF01296-BEE6-4B95-9114-865683F66995}">
@@ -72,7 +74,15 @@
     Опечатка в шлюзе по умолчанию</t>
       </text>
     </comment>
-    <comment ref="E18" authorId="5" shapeId="0" xr:uid="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
+    <comment ref="Q17" authorId="5" shapeId="0" xr:uid="{1F260E3B-2112-4D8B-A6E1-4E232388F4C3}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    Опечатка в IP-адресе ro-14-nsk</t>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="6" shapeId="0" xr:uid="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -80,7 +90,7 @@
     Нет IP у сервера</t>
       </text>
     </comment>
-    <comment ref="L18" authorId="6" shapeId="0" xr:uid="{F9BD9CB9-0C98-47F6-B7DA-950DB990007B}">
+    <comment ref="L18" authorId="7" shapeId="0" xr:uid="{F9BD9CB9-0C98-47F6-B7DA-950DB990007B}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -88,7 +98,7 @@
     Чужой IP</t>
       </text>
     </comment>
-    <comment ref="E19" authorId="7" shapeId="0" xr:uid="{A0085167-6E4E-43BA-ABBA-2AF4258BC437}">
+    <comment ref="E19" authorId="8" shapeId="0" xr:uid="{A0085167-6E4E-43BA-ABBA-2AF4258BC437}">
       <text>
         <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
@@ -96,12 +106,20 @@
     Нет IP у сервера</t>
       </text>
     </comment>
+    <comment ref="Q19" authorId="9" shapeId="0" xr:uid="{7D3186B8-56AF-48B7-B8FE-0D21F195F2B1}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    IPsec не взлетает по неизвестной причине</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -337,12 +355,15 @@
   <si>
     <t>DMZ</t>
   </si>
+  <si>
+    <t>VPN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +563,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1307,6 +1334,9 @@
   <threadedComment ref="L12" dT="2019-11-11T08:59:43.67" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{55B526D3-4963-40C1-9B36-A2985EF72C9F}">
     <text>Опечатка в шлюзе по умолчанию</text>
   </threadedComment>
+  <threadedComment ref="Q17" dT="2019-12-11T09:01:38.23" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{1F260E3B-2112-4D8B-A6E1-4E232388F4C3}">
+    <text>Опечатка в IP-адресе ro-14-nsk</text>
+  </threadedComment>
   <threadedComment ref="E18" dT="2019-09-23T05:50:21.26" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{F00F7F03-784B-4F14-B0FB-36655456CD81}">
     <text>Нет IP у сервера</text>
   </threadedComment>
@@ -1316,6 +1346,9 @@
   <threadedComment ref="E19" dT="2019-09-23T05:50:21.26" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{A0085167-6E4E-43BA-ABBA-2AF4258BC437}">
     <text>Нет IP у сервера</text>
   </threadedComment>
+  <threadedComment ref="Q19" dT="2019-12-11T09:19:24.53" personId="{D7A0377F-E828-499A-82F6-B623B0EE837A}" id="{7D3186B8-56AF-48B7-B8FE-0D21F195F2B1}">
+    <text>IPsec не взлетает по неизвестной причине</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1324,7 +1357,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17809,7 +17842,9 @@
       <c r="P5" s="5">
         <v>43802</v>
       </c>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="5">
+        <v>43809</v>
+      </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -17864,7 +17899,9 @@
       <c r="P6" s="8">
         <v>5</v>
       </c>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="8">
+        <v>5</v>
+      </c>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -17938,7 +17975,9 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="Q8" s="8">
+        <v>5</v>
+      </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -18022,7 +18061,9 @@
       <c r="P10" s="8">
         <v>5</v>
       </c>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="8">
+        <v>5</v>
+      </c>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
@@ -18106,7 +18147,9 @@
       <c r="P12" s="8">
         <v>5</v>
       </c>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="8">
+        <v>5</v>
+      </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -18248,7 +18291,9 @@
       <c r="P16" s="8">
         <v>5</v>
       </c>
-      <c r="Q16" s="8"/>
+      <c r="Q16" s="8">
+        <v>5</v>
+      </c>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
@@ -18301,7 +18346,9 @@
       <c r="P17" s="8">
         <v>5</v>
       </c>
-      <c r="Q17" s="8"/>
+      <c r="Q17" s="8">
+        <v>4</v>
+      </c>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
@@ -18383,7 +18430,9 @@
         <v>5</v>
       </c>
       <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="Q19" s="8">
+        <v>4</v>
+      </c>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
@@ -18458,6 +18507,9 @@
       <c r="P21">
         <v>13</v>
       </c>
+      <c r="Q21">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:21" s="6" customFormat="1" ht="53.25" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
@@ -18499,7 +18551,9 @@
       <c r="P22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Q22" s="7"/>
+      <c r="Q22" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B7EF2F-41C2-4F27-9FF1-DA8DD9926D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21850A14-4FFC-45E4-859D-154F0ECF1B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25140" yWindow="-60" windowWidth="25320" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -358,12 +358,15 @@
   <si>
     <t>VPN</t>
   </si>
+  <si>
+    <t>Wi-Fi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,12 +566,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1357,7 +1354,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17845,7 +17842,9 @@
       <c r="Q5" s="5">
         <v>43809</v>
       </c>
-      <c r="R5" s="5"/>
+      <c r="R5" s="5">
+        <v>43816</v>
+      </c>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -17902,7 +17901,9 @@
       <c r="Q6" s="8">
         <v>5</v>
       </c>
-      <c r="R6" s="8"/>
+      <c r="R6" s="8">
+        <v>5</v>
+      </c>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
@@ -17978,7 +17979,9 @@
       <c r="Q8" s="8">
         <v>5</v>
       </c>
-      <c r="R8" s="8"/>
+      <c r="R8" s="8">
+        <v>5</v>
+      </c>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
@@ -18064,7 +18067,9 @@
       <c r="Q10" s="8">
         <v>5</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="8">
+        <v>5</v>
+      </c>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
@@ -18150,7 +18155,9 @@
       <c r="Q12" s="8">
         <v>5</v>
       </c>
-      <c r="R12" s="8"/>
+      <c r="R12" s="8">
+        <v>5</v>
+      </c>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
@@ -18294,7 +18301,9 @@
       <c r="Q16" s="8">
         <v>5</v>
       </c>
-      <c r="R16" s="8"/>
+      <c r="R16" s="8">
+        <v>5</v>
+      </c>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
@@ -18349,7 +18358,9 @@
       <c r="Q17" s="8">
         <v>4</v>
       </c>
-      <c r="R17" s="8"/>
+      <c r="R17" s="8">
+        <v>5</v>
+      </c>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
@@ -18433,7 +18444,9 @@
       <c r="Q19" s="8">
         <v>4</v>
       </c>
-      <c r="R19" s="8"/>
+      <c r="R19" s="8">
+        <v>5</v>
+      </c>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
@@ -18510,6 +18523,9 @@
       <c r="Q21">
         <v>14</v>
       </c>
+      <c r="R21">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:21" s="6" customFormat="1" ht="53.25" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
@@ -18554,7 +18570,9 @@
       <c r="Q22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="R22" s="7"/>
+      <c r="R22" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21850A14-4FFC-45E4-859D-154F0ECF1B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13891805-7EE7-4253-81DC-05FFEA831A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25140" yWindow="-60" windowWidth="25320" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17965,7 +17965,9 @@
       <c r="I8" s="8">
         <v>4</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8">
+        <v>5</v>
+      </c>
       <c r="K8" s="8">
         <v>5</v>
       </c>

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13891805-7EE7-4253-81DC-05FFEA831A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18506F01-0E28-4270-B7B7-66DEC32F2A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>Сети и системы телекоммуникаций</t>
   </si>
@@ -568,7 +568,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,6 +748,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -924,7 +930,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -954,6 +960,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1354,7 +1363,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17918,24 +17927,36 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
+      <c r="D7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12">
+        <v>5</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">

--- a/register/2019.xlsx
+++ b/register/2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18506F01-0E28-4270-B7B7-66DEC32F2A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207E6030-4FB8-4DC1-B755-1864D7EA8B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -955,14 +955,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:XFC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,13 +1375,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16383" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17762,22 +17762,22 @@
       <c r="XFC1" s="1"/>
     </row>
     <row r="2" spans="1:16383" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:16383" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:16383" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
@@ -17927,36 +17927,40 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>5</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
         <v>4</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10">
         <v>5</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
+      <c r="R7" s="10">
+        <v>5</v>
+      </c>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:16383" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
